--- a/REVER_DailyTracker_20200608.xlsx
+++ b/REVER_DailyTracker_20200608.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B88913-CC65-438B-811E-75B49E183FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683F91EF-F721-434A-AD7D-031E6D7D073A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -195,6 +195,12 @@
   <si>
     <t>Dowload and upload for POC task has been tested from SSC1 to SSC10 exclusing SSC5 and SSC9 and going smooth and 
 placed in scheduler.(newbot)</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>Media file approval</t>
   </si>
 </sst>
 </file>
@@ -204,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +229,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,10 +324,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -343,9 +367,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{827B0D81-57D4-4A93-837C-642787AE2BD2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,22 +689,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -696,7 +725,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -706,8 +735,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -719,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -730,10 +759,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -747,9 +776,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -763,9 +792,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -779,8 +808,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -797,19 +826,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -827,13 +856,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -847,7 +876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -861,7 +890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -869,7 +898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -877,12 +906,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -890,7 +919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -901,7 +930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -912,7 +941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -923,12 +952,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -939,7 +968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -950,12 +979,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -963,7 +992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -971,7 +1000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -979,7 +1008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -987,7 +1016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1007,18 +1036,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1050,7 +1079,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1059,46 +1088,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1115,22 +1144,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1153,16 +1182,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43990</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1171,46 +1212,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1231,18 +1272,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1274,7 +1315,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1283,46 +1324,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1343,18 +1384,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1386,7 +1427,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1395,46 +1436,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1455,18 +1496,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1510,7 +1551,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1519,46 +1560,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1579,18 +1620,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1622,7 +1663,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1631,46 +1672,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1691,18 +1732,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1734,7 +1775,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1743,46 +1784,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1803,18 +1844,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1837,7 +1878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1846,7 +1887,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1855,46 +1896,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1915,18 +1956,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1949,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1958,7 +1999,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1967,46 +2008,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200608.xlsx
+++ b/REVER_DailyTracker_20200608.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683F91EF-F721-434A-AD7D-031E6D7D073A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC48964-548F-4A24-ADA1-2EA0C45A4F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="49">
   <si>
     <t>Task</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>Media file approval</t>
+  </si>
+  <si>
+    <t>Hayaai APP</t>
+  </si>
+  <si>
+    <t>Helped purchase summary</t>
+  </si>
+  <si>
+    <t>Worked on changes for technician,repair usages</t>
   </si>
 </sst>
 </file>
@@ -693,15 +702,15 @@
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -736,7 +745,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -762,7 +771,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -794,7 +803,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -862,7 +871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -876,7 +885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -890,7 +899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -898,7 +907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -919,7 +928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -930,7 +939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -957,7 +966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -984,7 +993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1000,7 +1009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1036,15 +1045,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1144,19 +1153,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1182,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1272,15 +1281,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1380,19 +1389,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1421,9 +1430,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1431,8 +1446,12 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0.6</v>
+      </c>
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
@@ -1496,15 +1515,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1620,15 +1639,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1732,15 +1751,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1844,15 +1863,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1956,15 +1975,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
